--- a/docs/shrcore/shr-core-ClinicalNote-model.xlsx
+++ b/docs/shrcore/shr-core-ClinicalNote-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$24</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="113">
   <si>
     <t>Path</t>
   </si>
@@ -257,26 +257,20 @@
 </t>
   </si>
   <si>
-    <t>shr-core-ClinicalNote-model.creationDateTime</t>
+    <t>shr-core-ClinicalNote-model.statementDateTime</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The point in time when the item was created.</t>
+    <t>The point in time when the statement was created.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C3669169
 </t>
   </si>
   <si>
-    <t>shr-core-ClinicalNote-model.statementDateTime</t>
-  </si>
-  <si>
-    <t>The point in time when the statement was created.</t>
-  </si>
-  <si>
     <t>shr-core-ClinicalNote-model.documentAuthor[x]</t>
   </si>
   <si>
@@ -307,6 +301,61 @@
     <t>The organization that manages a patient, activity, facility, document, or service provision.</t>
   </si>
   <si>
+    <t>shr-core-ClinicalNote-model.relatedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Documents related to this one.</t>
+  </si>
+  <si>
+    <t>shr-core-ClinicalNote-model.relatedDocument.relationship</t>
+  </si>
+  <si>
+    <t>A description of the association between people or items.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
+  </si>
+  <si>
+    <t>shr-core-ClinicalNote-model.relatedDocument.targetDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DocumentReference-model]]}
+</t>
+  </si>
+  <si>
+    <t>The target document of this relationship.</t>
+  </si>
+  <si>
+    <t>shr-core-ClinicalNote-model.commentOrDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
+  </si>
+  <si>
+    <t>shr-core-ClinicalNote-model.securityLabel</t>
+  </si>
+  <si>
+    <t>A code that connects the entry to a security policy. Security labels can be updated when the resource changes, or whenever the security sub-system chooses to.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C3858779 (security classification)
+</t>
+  </si>
+  <si>
     <t>shr-core-ClinicalNote-model.documentReferenced</t>
   </si>
   <si>
@@ -315,61 +364,6 @@
   </si>
   <si>
     <t>The document referenced.</t>
-  </si>
-  <si>
-    <t>shr-core-ClinicalNote-model.relatedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Documents related to this one.</t>
-  </si>
-  <si>
-    <t>shr-core-ClinicalNote-model.relatedDocument.relationship</t>
-  </si>
-  <si>
-    <t>A description of the association between people or items.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
-  </si>
-  <si>
-    <t>shr-core-ClinicalNote-model.relatedDocument.targetDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DocumentReference-model]]}
-</t>
-  </si>
-  <si>
-    <t>The target document of this relationship.</t>
-  </si>
-  <si>
-    <t>shr-core-ClinicalNote-model.commentOrDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>shr-core-ClinicalNote-model.securityLabel</t>
-  </si>
-  <si>
-    <t>A code that connects the entry to a security policy. Security labels can be updated when the resource changes, or whenever the security sub-system chooses to.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C3858779 (security classification)
-</t>
   </si>
   <si>
     <t>shr-core-ClinicalNote-model.eventContext</t>
@@ -528,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1845,7 +1839,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>41</v>
@@ -1920,7 +1914,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>41</v>
@@ -1942,10 +1936,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -1957,13 +1951,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1999,7 +1993,7 @@
         <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2017,10 +2011,10 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -2031,7 +2025,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2042,7 +2036,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>36</v>
@@ -2054,13 +2048,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2111,13 +2105,13 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>36</v>
@@ -2128,7 +2122,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2151,13 +2145,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2208,7 +2202,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2225,7 +2219,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2236,7 +2230,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>36</v>
@@ -2248,13 +2242,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2305,13 +2299,13 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>36</v>
@@ -2322,7 +2316,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2333,7 +2327,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>36</v>
@@ -2345,7 +2339,7 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>94</v>
@@ -2378,13 +2372,11 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>36</v>
@@ -2402,13 +2394,13 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2419,7 +2411,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2427,10 +2419,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>36</v>
@@ -2442,13 +2434,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2499,13 +2491,13 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>36</v>
@@ -2516,7 +2508,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2524,7 +2516,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>41</v>
@@ -2539,13 +2531,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2572,11 +2564,13 @@
         <v>36</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>36</v>
@@ -2594,10 +2588,10 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>41</v>
@@ -2611,7 +2605,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2619,10 +2613,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>36</v>
@@ -2634,7 +2628,7 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>103</v>
@@ -2667,16 +2661,14 @@
         <v>36</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>36</v>
@@ -2691,13 +2683,13 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>36</v>
@@ -2708,7 +2700,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2716,10 +2708,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>36</v>
@@ -2731,13 +2723,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2788,13 +2780,13 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>36</v>
@@ -2805,7 +2797,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2816,7 +2808,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>36</v>
@@ -2828,13 +2820,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2861,142 +2853,47 @@
         <v>36</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI25" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI25">
+  <autoFilter ref="A1:AI24">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3006,7 +2903,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI24">
+  <conditionalFormatting sqref="A2:AI23">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
